--- a/class02-ETL (Power Query)/class-ETL-Power Query-Bases/Vendas 2023.xlsx
+++ b/class02-ETL (Power Query)/class-ETL-Power Query-Bases/Vendas 2023.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/PowerBI/class02 - ETL (Power Query)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Power-BI-for-Business-Intelligence/class02-ETL (Power Query)/class-ETL-Power Query-Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269909BE-DD42-401F-B30C-F6B638594265}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D184D1E5-463A-4A9F-853B-AD36E1CB7DE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -176,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -204,6 +215,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -492,14 +504,14 @@
   <dimension ref="B3:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -606,6 +618,7 @@
       <c r="N6" s="1">
         <v>8510</v>
       </c>
+      <c r="O6" s="11"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -660,6 +673,7 @@
       <c r="N7" s="1">
         <v>6732</v>
       </c>
+      <c r="O7" s="11"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -714,6 +728,7 @@
       <c r="N8" s="1">
         <v>6087</v>
       </c>
+      <c r="O8" s="11"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -768,6 +783,7 @@
       <c r="N9" s="1">
         <v>5746</v>
       </c>
+      <c r="O9" s="11"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -822,6 +838,7 @@
       <c r="N10" s="8">
         <v>6839</v>
       </c>
+      <c r="O10" s="11"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -876,6 +893,7 @@
       <c r="N11" s="8">
         <v>6811</v>
       </c>
+      <c r="O11" s="11"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -930,6 +948,7 @@
       <c r="N12" s="8">
         <v>8215</v>
       </c>
+      <c r="O12" s="11"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -984,6 +1003,7 @@
       <c r="N13" s="8">
         <v>6298</v>
       </c>
+      <c r="O13" s="11"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1038,6 +1058,7 @@
       <c r="N14" s="8">
         <v>7102</v>
       </c>
+      <c r="O14" s="11"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1092,6 +1113,7 @@
       <c r="N15" s="8">
         <v>6782</v>
       </c>
+      <c r="O15" s="11"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1111,6 +1133,15 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
